--- a/src/test/resources/TestData/DataLMS.xlsx
+++ b/src/test/resources/TestData/DataLMS.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Login" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Class" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>scenarioName</t>
   </si>
@@ -29,13 +30,73 @@
   </si>
   <si>
     <t>Feb@2025</t>
+  </si>
+  <si>
+    <t>ClassDescription</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Recording</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>Edit class with valid data</t>
+  </si>
+  <si>
+    <t>appium</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>application testing</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets</t>
+  </si>
+  <si>
+    <t>Class Updated</t>
+  </si>
+  <si>
+    <t>Edit class with invalid data</t>
+  </si>
+  <si>
+    <t>Edit class with mandatory fields</t>
+  </si>
+  <si>
+    <t>Edit class with optional fields</t>
+  </si>
+  <si>
+    <t>selenium</t>
+  </si>
+  <si>
+    <t>web testing</t>
+  </si>
+  <si>
+    <t>Edit class with invalid values in text fields</t>
+  </si>
+  <si>
+    <t>hu(()&amp;&amp;</t>
+  </si>
+  <si>
+    <t>web***(()</t>
+  </si>
+  <si>
+    <t>LOjuuu9900</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -45,6 +106,15 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -61,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -71,6 +141,15 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -80,6 +159,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -312,4 +395,132 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="31.25"/>
+    <col customWidth="1" min="2" max="2" width="13.5"/>
+    <col customWidth="1" min="4" max="4" width="14.38"/>
+    <col customWidth="1" min="5" max="5" width="29.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E2"/>
+    <hyperlink r:id="rId2" ref="E3"/>
+    <hyperlink r:id="rId3" ref="E5"/>
+  </hyperlinks>
+  <drawing r:id="rId4"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData/DataLMS.xlsx
+++ b/src/test/resources/TestData/DataLMS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>scenarioName</t>
   </si>
@@ -47,6 +47,15 @@
     <t>message</t>
   </si>
   <si>
+    <t>BatchName</t>
+  </si>
+  <si>
+    <t>ClassTopic</t>
+  </si>
+  <si>
+    <t>StaffName</t>
+  </si>
+  <si>
     <t>Edit class with valid data</t>
   </si>
   <si>
@@ -90,6 +99,24 @@
   </si>
   <si>
     <t>LOjuuu9900</t>
+  </si>
+  <si>
+    <t>Search with valid batch name</t>
+  </si>
+  <si>
+    <t>Micro service-01</t>
+  </si>
+  <si>
+    <t>Vidhya Test</t>
+  </si>
+  <si>
+    <t>Getha Takur</t>
+  </si>
+  <si>
+    <t>Search with valid class topic</t>
+  </si>
+  <si>
+    <t>Search with valid staff name</t>
   </si>
 </sst>
 </file>
@@ -432,87 +459,138 @@
       <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/DataLMS.xlsx
+++ b/src/test/resources/TestData/DataLMS.xlsx
@@ -4,7 +4,8 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Login" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Class" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Program" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Class" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
   <si>
     <t>scenarioName</t>
   </si>
@@ -32,6 +33,84 @@
     <t>Feb@2025</t>
   </si>
   <si>
+    <t>ProgramName</t>
+  </si>
+  <si>
+    <t>ProgramDescription</t>
+  </si>
+  <si>
+    <t>ProgramStatus</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>Edit program with program name</t>
+  </si>
+  <si>
+    <t>Excel operations</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Program Updated</t>
+  </si>
+  <si>
+    <t>Edit Program with program description</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Edit Program with program status</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Add new program with valid data</t>
+  </si>
+  <si>
+    <t>TestMindsSix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selenium </t>
+  </si>
+  <si>
+    <t>Program Created</t>
+  </si>
+  <si>
+    <t>Searching the added program using program name</t>
+  </si>
+  <si>
+    <t>PleaseDontDelete</t>
+  </si>
+  <si>
+    <t>Team2</t>
+  </si>
+  <si>
+    <t>Searching the added program using program description</t>
+  </si>
+  <si>
+    <t>Searching the added program using invalid program name</t>
+  </si>
+  <si>
+    <t>werqde</t>
+  </si>
+  <si>
+    <t>Searching the added program using partial program name</t>
+  </si>
+  <si>
+    <t>Please</t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
     <t>ClassDescription</t>
   </si>
   <si>
@@ -42,9 +121,6 @@
   </si>
   <si>
     <t>Recording</t>
-  </si>
-  <si>
-    <t>message</t>
   </si>
   <si>
     <t>BatchName</t>
@@ -123,7 +199,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -138,6 +214,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -158,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -174,6 +255,10 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -190,6 +275,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -434,6 +523,162 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="44.0"/>
+    <col customWidth="1" min="2" max="2" width="13.38"/>
+    <col customWidth="1" min="3" max="3" width="15.75"/>
+    <col customWidth="1" min="5" max="5" width="14.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
     <col customWidth="1" min="1" max="1" width="31.25"/>
     <col customWidth="1" min="2" max="2" width="13.5"/>
     <col customWidth="1" min="4" max="4" width="14.38"/>
@@ -445,152 +690,152 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>18</v>
+        <v>42</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>42</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>28</v>
+        <v>52</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/DataLMS.xlsx
+++ b/src/test/resources/TestData/DataLMS.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anbum\OneDrive\Desktop\Anbu\LMS_Selenium_Feb2025\Team6_TestMinds\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80636590-CA4D-4E08-B39B-CD53EE42C5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Login" sheetId="1" r:id="rId4"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Class" sheetId="2" r:id="rId2"/>
+    <sheet name="Batch" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>scenarioName</t>
   </si>
@@ -29,22 +40,168 @@
   </si>
   <si>
     <t>Feb@2025</t>
+  </si>
+  <si>
+    <t>ClassDescription</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Recording</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>Edit class with valid data</t>
+  </si>
+  <si>
+    <t>appium</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>application testing</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets</t>
+  </si>
+  <si>
+    <t>Class Updated</t>
+  </si>
+  <si>
+    <t>Edit class with invalid data</t>
+  </si>
+  <si>
+    <t>Edit class with mandatory fields</t>
+  </si>
+  <si>
+    <t>Edit class with optional fields</t>
+  </si>
+  <si>
+    <t>selenium</t>
+  </si>
+  <si>
+    <t>web testing</t>
+  </si>
+  <si>
+    <t>Edit class with invalid values in text fields</t>
+  </si>
+  <si>
+    <t>hu(()&amp;&amp;</t>
+  </si>
+  <si>
+    <t>web***(()</t>
+  </si>
+  <si>
+    <t>LOjuuu9900</t>
+  </si>
+  <si>
+    <t>onlyMandatoryfields</t>
+  </si>
+  <si>
+    <t>withoutMandatoryfields</t>
+  </si>
+  <si>
+    <t>allValidFields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing </t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>No of classes</t>
+  </si>
+  <si>
+    <t>created for testing purpose</t>
+  </si>
+  <si>
+    <t>batchSuffix</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>testCase4</t>
+  </si>
+  <si>
+    <t>cancelBtnwithValiddata</t>
+  </si>
+  <si>
+    <t>description_noOfClasses_Invalid</t>
+  </si>
+  <si>
+    <t>saveBtnwithValidData</t>
+  </si>
+  <si>
+    <t>Testfeer</t>
+  </si>
+  <si>
+    <t>yrtrte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>start with an alphabet</t>
+  </si>
+  <si>
+    <t>batch Updated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -52,39 +209,48 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -274,20 +440,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -298,18 +467,284 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1811C49A-52B8-43AB-9C5B-9A2865C36A65}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>34</v>
+      </c>
+      <c r="D2">
+        <v>76</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <v>78</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>43535</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/DataLMS.xlsx
+++ b/src/test/resources/TestData/DataLMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anbum\OneDrive\Desktop\Anbu\LMS_Selenium_Feb2025\Team6_TestMinds\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D348F848-6631-4EC9-88D3-5AB05E5BB5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E96551-C98C-42CF-B8EF-9D5CA9DB707B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,13 +16,14 @@
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Class" sheetId="2" r:id="rId2"/>
     <sheet name="Batch" sheetId="3" r:id="rId3"/>
+    <sheet name="Program" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
   <si>
     <t>scenarioName</t>
   </si>
@@ -154,6 +155,108 @@
   </si>
   <si>
     <t>batch Updated</t>
+  </si>
+  <si>
+    <t>ProgramName</t>
+  </si>
+  <si>
+    <t>ProgramDescription</t>
+  </si>
+  <si>
+    <t>ProgramStatus</t>
+  </si>
+  <si>
+    <t>Edit program with program name</t>
+  </si>
+  <si>
+    <t>Excel operations</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Program Updated</t>
+  </si>
+  <si>
+    <t>Edit Program with program description</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Edit Program with program status</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Add new program with valid data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selenium </t>
+  </si>
+  <si>
+    <t>Program Created</t>
+  </si>
+  <si>
+    <t>Searching the added program using program name</t>
+  </si>
+  <si>
+    <t>PleaseDontDelete</t>
+  </si>
+  <si>
+    <t>Team2</t>
+  </si>
+  <si>
+    <t>Searching the added program using program description</t>
+  </si>
+  <si>
+    <t>Searching the added program using invalid program name</t>
+  </si>
+  <si>
+    <t>werqde</t>
+  </si>
+  <si>
+    <t>Searching the added program using partial program name</t>
+  </si>
+  <si>
+    <t>Please</t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t>BatchName</t>
+  </si>
+  <si>
+    <t>ClassTopic</t>
+  </si>
+  <si>
+    <t>StaffName</t>
+  </si>
+  <si>
+    <t>Search with valid batch name</t>
+  </si>
+  <si>
+    <t>Micro service-01</t>
+  </si>
+  <si>
+    <t>Vidhya Test</t>
+  </si>
+  <si>
+    <t>Getha Takur</t>
+  </si>
+  <si>
+    <t>Search with valid class topic</t>
+  </si>
+  <si>
+    <t>Search with valid staff name</t>
+  </si>
+  <si>
+    <t>TestMindsEight</t>
   </si>
 </sst>
 </file>
@@ -227,11 +330,11 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,10 +591,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -502,113 +605,164 @@
     <col min="5" max="5" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="5" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -619,7 +773,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -635,10 +789,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D1" t="s">
@@ -649,10 +803,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C2">
@@ -661,12 +815,12 @@
       <c r="D2">
         <v>76</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D3">
@@ -674,10 +828,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C4">
@@ -686,15 +840,15 @@
       <c r="D4">
         <v>78</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C5">
@@ -705,7 +859,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B6">
@@ -719,24 +873,24 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C7">
         <v>22</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C8">
@@ -747,4 +901,159 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDCD8B8-A8C5-46CA-A2F7-20A6B574D3EB}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData/DataLMS.xlsx
+++ b/src/test/resources/TestData/DataLMS.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anbum\OneDrive\Desktop\Anbu\LMS_Selenium_Feb2025\Team6_TestMinds\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E96551-C98C-42CF-B8EF-9D5CA9DB707B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39731B49-867F-4425-9A48-D19B09619591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Class" sheetId="2" r:id="rId2"/>
-    <sheet name="Batch" sheetId="3" r:id="rId3"/>
-    <sheet name="Program" sheetId="4" r:id="rId4"/>
+    <sheet name="InvalidLogin" sheetId="5" r:id="rId2"/>
+    <sheet name="Class" sheetId="2" r:id="rId3"/>
+    <sheet name="Batch" sheetId="3" r:id="rId4"/>
+    <sheet name="Program" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="95">
   <si>
     <t>scenarioName</t>
   </si>
@@ -256,7 +257,58 @@
     <t>Search with valid staff name</t>
   </si>
   <si>
-    <t>TestMindsEight</t>
+    <t>TestMindninety</t>
+  </si>
+  <si>
+    <t>TestCase</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>ErrorMessage</t>
+  </si>
+  <si>
+    <t>Sdet</t>
+  </si>
+  <si>
+    <t>Numpy</t>
+  </si>
+  <si>
+    <t>Invalid username and password Please try again</t>
+  </si>
+  <si>
+    <t>LmsHackathon@2024</t>
+  </si>
+  <si>
+    <t>Please enter your user name</t>
+  </si>
+  <si>
+    <t>Sdet@gmail.com</t>
+  </si>
+  <si>
+    <t>Please enter your password</t>
+  </si>
+  <si>
+    <t>loginwithInvalidUserName</t>
+  </si>
+  <si>
+    <t>loginwithInvalidPassword</t>
+  </si>
+  <si>
+    <t>loginwithInvalidData</t>
+  </si>
+  <si>
+    <t>login with Invalid UserName</t>
+  </si>
+  <si>
+    <t>login with InvalidPassword</t>
+  </si>
+  <si>
+    <t>login with InvalidData</t>
   </si>
 </sst>
 </file>
@@ -553,13 +605,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,8 +626,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -579,6 +639,42 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -587,6 +683,74 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833DE3DC-212F-4255-A4CB-D62E11166527}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -768,11 +932,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1811C49A-52B8-43AB-9C5B-9A2865C36A65}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -903,12 +1067,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDCD8B8-A8C5-46CA-A2F7-20A6B574D3EB}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/TestData/DataLMS.xlsx
+++ b/src/test/resources/TestData/DataLMS.xlsx
@@ -14,14 +14,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="l6mcTJHEnZS7QOP6uzTc84T2BrL4NpXx/v+TGMh+yo8="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="pYGJj2a0ItJ5z688RKn1iQ2w3MN4lg3KQxTZAbdyfW8="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="116">
   <si>
     <t>scenarioName</t>
   </si>
@@ -200,10 +200,10 @@
     <t>Add new program with valid data</t>
   </si>
   <si>
-    <t>TestMindSixTwo</t>
+    <t>PlaywrightOne</t>
   </si>
   <si>
-    <t>Selenium</t>
+    <t>WebTest</t>
   </si>
   <si>
     <t>Program Created</t>
@@ -221,16 +221,13 @@
     <t>werqde</t>
   </si>
   <si>
+    <t>Selenium</t>
+  </si>
+  <si>
     <t>Searching the added program using partial program name</t>
   </si>
   <si>
-    <t>Sele</t>
-  </si>
-  <si>
-    <t>Add new program with valid data end to end</t>
-  </si>
-  <si>
-    <t>TestMindssSixtyTwo</t>
+    <t>Playwr</t>
   </si>
   <si>
     <t xml:space="preserve">Enter valid program name	</t>
@@ -264,6 +261,9 @@
   </si>
   <si>
     <t>batchSuffix</t>
+  </si>
+  <si>
+    <t>batchName</t>
   </si>
   <si>
     <t>onlyMandatoryfields</t>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>yrtrte</t>
+  </si>
+  <si>
+    <t>Search with valid batch name</t>
   </si>
   <si>
     <t>BatchName</t>
@@ -386,15 +389,6 @@
     <t>LOjuuu9900</t>
   </si>
   <si>
-    <t>Search with valid batch name</t>
-  </si>
-  <si>
-    <t>Vidhya Test</t>
-  </si>
-  <si>
-    <t>Getha Takur</t>
-  </si>
-  <si>
     <t>Search with valid class topic</t>
   </si>
   <si>
@@ -463,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -483,6 +477,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
@@ -3045,7 +3042,7 @@
       <c r="B5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -3062,7 +3059,7 @@
       <c r="B6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -3077,7 +3074,7 @@
       <c r="B7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -3093,7 +3090,7 @@
         <v>65</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>52</v>
@@ -3102,36 +3099,20 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
+    <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1"/>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -4121,7 +4102,6 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:B4"/>
@@ -4168,10 +4148,10 @@
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="8"/>
@@ -4179,35 +4159,35 @@
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
@@ -11202,16 +11182,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>48</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -11221,10 +11204,10 @@
       <c r="B2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>34.0</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="11">
         <v>76.0</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -11237,7 +11220,7 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="10">
+      <c r="D3" s="11">
         <v>77.0</v>
       </c>
       <c r="E3" s="5"/>
@@ -11249,10 +11232,10 @@
       <c r="B4" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>35.0</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
         <v>78.0</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -11266,10 +11249,10 @@
       <c r="B5" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <v>10.0</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="11">
         <v>1.0</v>
       </c>
       <c r="E5" s="5"/>
@@ -11278,7 +11261,7 @@
       <c r="A6" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="11">
         <v>43535.0</v>
       </c>
       <c r="C6" s="5"/>
@@ -11294,7 +11277,7 @@
       <c r="B7" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="11">
         <v>22.0</v>
       </c>
       <c r="D7" s="5"/>
@@ -11309,13 +11292,20 @@
       <c r="B8" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="11">
         <v>44.0</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1"/>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -12349,7 +12339,7 @@
         <v>48</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>16</v>
@@ -12360,22 +12350,22 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="11" t="s">
         <v>100</v>
       </c>
+      <c r="E2" s="12" t="s">
+        <v>101</v>
+      </c>
       <c r="F2" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -12383,19 +12373,19 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -12403,14 +12393,14 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -12418,22 +12408,22 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="11" t="s">
         <v>108</v>
       </c>
+      <c r="E5" s="12" t="s">
+        <v>109</v>
+      </c>
       <c r="F5" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -12441,19 +12431,19 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -12462,7 +12452,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -12473,15 +12463,15 @@
         <v>27</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -12492,15 +12482,15 @@
         <v>27</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -12511,10 +12501,10 @@
         <v>27</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1"/>
@@ -13509,8 +13499,11 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="E2"/>

--- a/src/test/resources/TestData/DataLMS.xlsx
+++ b/src/test/resources/TestData/DataLMS.xlsx
@@ -140,7 +140,7 @@
     <t>Edit program with program name</t>
   </si>
   <si>
-    <t>Excel operations</t>
+    <t>ExcelOperations</t>
   </si>
   <si>
     <t>Microsoft</t>
@@ -167,7 +167,7 @@
     <t>Add new program with valid data</t>
   </si>
   <si>
-    <t>Playwright 789</t>
+    <t>PlaywrightSevenOne</t>
   </si>
   <si>
     <t>Javascript</t>

--- a/src/test/resources/TestData/DataLMS.xlsx
+++ b/src/test/resources/TestData/DataLMS.xlsx
@@ -5,26 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anbum\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anbum\OneDrive\Desktop\Anbu\LMS_Selenium_Feb2025\Team6_TestMinds\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56C1E66-9EFB-4A48-BF23-7E3ED6102AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED9D524-A7C7-4B2C-94C6-8D7A550FD57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="AddClass" sheetId="2" r:id="rId2"/>
     <sheet name="Program" sheetId="3" r:id="rId3"/>
-    <sheet name="Batch" sheetId="4" r:id="rId4"/>
-    <sheet name="Class" sheetId="5" r:id="rId5"/>
+    <sheet name="AddProgram" sheetId="6" r:id="rId4"/>
+    <sheet name="Batch" sheetId="4" r:id="rId5"/>
+    <sheet name="Class" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="121">
   <si>
     <t>scenarioName</t>
   </si>
@@ -382,12 +383,42 @@
   <si>
     <t>Invalid username and password Please try again</t>
   </si>
+  <si>
+    <t xml:space="preserve">Enter valid program name	</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter valid description	</t>
+  </si>
+  <si>
+    <t>Traning for testing</t>
+  </si>
+  <si>
+    <t>Verify select Status</t>
+  </si>
+  <si>
+    <t>Active/inactive</t>
+  </si>
+  <si>
+    <t>Verify Admin is able to save the program details</t>
+  </si>
+  <si>
+    <t>Successful Program created</t>
+  </si>
+  <si>
+    <t>ProgramNameforBatch</t>
+  </si>
+  <si>
+    <t>TestMinds</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -445,6 +476,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="Inter"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -466,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -475,13 +511,25 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,41 +751,41 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="12.75">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:4" ht="12.75">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
@@ -745,10 +793,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
@@ -756,7 +804,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B5" t="s">
@@ -837,12 +885,12 @@
         <v>19</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="15"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -863,12 +911,12 @@
       <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="6" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="15"/>
       <c r="I3" s="1" t="s">
         <v>26</v>
       </c>
@@ -893,12 +941,12 @@
         <v>30</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="15"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -917,12 +965,12 @@
       <c r="D5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="6" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="15"/>
       <c r="I5" s="1" t="s">
         <v>34</v>
       </c>
@@ -956,11 +1004,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -1014,10 +1067,10 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>48</v>
@@ -1102,6 +1155,20 @@
         <v>43</v>
       </c>
       <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1112,6 +1179,87 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6770A2C2-2A73-4F1F-8473-38C15790DB76}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="12" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1245,14 +1393,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1323,10 +1471,10 @@
       <c r="D3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>

--- a/src/test/resources/TestData/DataLMS.xlsx
+++ b/src/test/resources/TestData/DataLMS.xlsx
@@ -200,7 +200,7 @@
     <t>Add new program with valid data</t>
   </si>
   <si>
-    <t>PlaywrightEightOne</t>
+    <t>PlaywrightEightTwo</t>
   </si>
   <si>
     <t>WebScrape</t>
